--- a/DOCUMENTATION/Unit_Test.xlsx
+++ b/DOCUMENTATION/Unit_Test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>Sl: No:</t>
   </si>
@@ -31,82 +31,184 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>UT-1</t>
-  </si>
-  <si>
-    <t>Price Calculation: High Availability</t>
-  </si>
-  <si>
-    <t>Call calculate_dynamic_price() with 90% seats remaining (e.g., 90/100).</t>
-  </si>
-  <si>
-    <t>Price Factor should be less than base (e.g., *0.95).</t>
-  </si>
-  <si>
-    <t>Price ≈ $95.00</t>
+    <t>Price Calculation: Low Availability</t>
+  </si>
+  <si>
+    <t>Call calculate_dynamic_price() with 10% seats remaining.</t>
+  </si>
+  <si>
+    <t>Price $\approx (Base \times 1.35) \times Demand$.</t>
+  </si>
+  <si>
+    <t>Price is significantly inflated.</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>UT-2</t>
-  </si>
-  <si>
-    <t>Price Calculation: Low Availability</t>
-  </si>
-  <si>
-    <t>Call calculate_dynamic_price() with 10% seats remaining (e.g., 10/100).</t>
-  </si>
-  <si>
-    <t>Price Factor should be high (e.g., *1.30).</t>
-  </si>
-  <si>
-    <t>Price ≈ $130.00</t>
-  </si>
-  <si>
-    <t>UT-3</t>
-  </si>
-  <si>
     <t>Transactional Integrity: Oversell</t>
   </si>
   <si>
-    <t>Simultaneously attempt two final payments on the last available seat (simulated concurrency).</t>
-  </si>
-  <si>
-    <t>Only ONE payment succeeds (status: CONFIRMED); the second fails (status: 400 Bad Request / Seat sold out).</t>
-  </si>
-  <si>
-    <t>Second payment fails; seats_remaining is 0.</t>
-  </si>
-  <si>
-    <t>UT-4</t>
-  </si>
-  <si>
-    <t>History Filter Robustness</t>
-  </si>
-  <si>
-    <t>Attempt to fetch history while logged in as user ID 26.</t>
-  </si>
-  <si>
-    <t>Only bookings where b.user_id = 26 AND b.status = 'CONFIRMED' are returned.</t>
-  </si>
-  <si>
-    <t>Only User 26's confirmed transactions are returned.</t>
-  </si>
-  <si>
-    <t>UT-5</t>
-  </si>
-  <si>
-    <t>Cancellation/Refund</t>
-  </si>
-  <si>
-    <t>Call DELETE /bookings/{pnr} for a confirmed booking.</t>
-  </si>
-  <si>
-    <t>Booking is deleted from booking table, inserted into cancelled_booking table, seats_remaining increases by 1, and returns a refund amount (80%).</t>
-  </si>
-  <si>
-    <t>Seat count restored; Refund calculated; Transaction completes atomically.</t>
+    <t>Send two concurrent payment requests for a flight with 1 seat remaining.</t>
+  </si>
+  <si>
+    <t>Only one request commits successfully. The second fails atomically.</t>
+  </si>
+  <si>
+    <t>Second payment fails (400 Bad Request); Seat count remains 0.</t>
+  </si>
+  <si>
+    <t>User Registration/Schema</t>
+  </si>
+  <si>
+    <t>Submit form with new user details (Name, Phone, Country).</t>
+  </si>
+  <si>
+    <t>Data is saved correctly in the user table, and all fields are non-null.</t>
+  </si>
+  <si>
+    <t>New user created; No KeyError or no such column errors.</t>
+  </si>
+  <si>
+    <t>History Filtering &amp; Status</t>
+  </si>
+  <si>
+    <t>Log in as User 3 (Ali), and call GET /bookings/history/3.</t>
+  </si>
+  <si>
+    <t>Only bookings where user_id = 3 and status = 'CONFIRMED' are returned.</t>
+  </si>
+  <si>
+    <t>Only Ali's confirmed bookings are listed.</t>
+  </si>
+  <si>
+    <t>Booking Creation &amp; PNR</t>
+  </si>
+  <si>
+    <t>Submit a valid booking request (POST /bookings).</t>
+  </si>
+  <si>
+    <t>A new record is created in the booking table with status = 'PENDING_PAYMENT'.</t>
+  </si>
+  <si>
+    <t>Returns 201 Created and a unique PNR.</t>
+  </si>
+  <si>
+    <t>Cancellation &amp; Archival</t>
+  </si>
+  <si>
+    <t>Call DELETE /bookings/{PNR} for a confirmed booking.</t>
+  </si>
+  <si>
+    <t>Record is moved from booking to cancelled_booking table, and seats_remaining is restored.</t>
+  </si>
+  <si>
+    <t>Record archived; Refund amount (80% of price) returned.</t>
+  </si>
+  <si>
+    <t>Search API Input Validation</t>
+  </si>
+  <si>
+    <t>Call GET /flights with invalid data (e.g., non-existent city code or SQL injection attempt).</t>
+  </si>
+  <si>
+    <t>Returns HTTP 404 Not Found or prevents malicious execution (sanitization).</t>
+  </si>
+  <si>
+    <t>Server safely handles the query; Returns 404 or 200 Empty List.</t>
+  </si>
+  <si>
+    <t>PDF Generation: Ticket Details</t>
+  </si>
+  <si>
+    <t>Complete a full transaction and call GET /tickets/{PNR}.</t>
+  </si>
+  <si>
+    <t>The downloaded PDF displays the correct PNR, Flight Number, and the exact Passenger Full Name.</t>
+  </si>
+  <si>
+    <t>PDF generated successfully with accurate data.</t>
+  </si>
+  <si>
+    <t>PDF Generation: Receipt Details</t>
+  </si>
+  <si>
+    <t>Cancel a ticket and call GET /receipts/{PNR}.</t>
+  </si>
+  <si>
+    <t>The PDF displays the calculated refund amount and the cancellation date.</t>
+  </si>
+  <si>
+    <t>Receipt generated with 80% refund detail.</t>
+  </si>
+  <si>
+    <t>Login/Authentication</t>
+  </si>
+  <si>
+    <t>Attempt login with valid and invalid credentials.</t>
+  </si>
+  <si>
+    <t>Valid credentials return 200 OK and user_id. Invalid credentials return 401 Unauthorized.</t>
+  </si>
+  <si>
+    <t>Authentication works as expected.</t>
+  </si>
+  <si>
+    <t>Dynamic Pricing API Integration</t>
+  </si>
+  <si>
+    <t>Call GET /flights and verify that the final_price is included in the JSON response structure.</t>
+  </si>
+  <si>
+    <t>The response contains the calculated final_price field.</t>
+  </si>
+  <si>
+    <t>AI Chatbot Response</t>
+  </si>
+  <si>
+    <t>Submit the prompt "Plan a 3-day trip to Rome from London."</t>
+  </si>
+  <si>
+    <t>Chatbot returns a structured suggestion and confirms availability for the cities.</t>
+  </si>
+  <si>
+    <t>Returns relevant travel plan/suggestions.</t>
+  </si>
+  <si>
+    <t>UI Redirection Flow</t>
+  </si>
+  <si>
+    <t>In "Flight Search," select a flight ID and click "BOOK NOW."</t>
+  </si>
+  <si>
+    <t>Screen redirects successfully to the "Make a Booking" page, and the Flight ID input field is correctly autofilled.</t>
+  </si>
+  <si>
+    <t>Redirection and autofill work.</t>
+  </si>
+  <si>
+    <t>Database Integrity Check</t>
+  </si>
+  <si>
+    <t>After a successful booking (UT-4), check the booking table status field directly.</t>
+  </si>
+  <si>
+    <t>The status field for the new PNR must be exactly 'CONFIRMED'.</t>
+  </si>
+  <si>
+    <t>Status field is 'CONFIRMED'.</t>
+  </si>
+  <si>
+    <t>Cross-Browser Compatibility</t>
+  </si>
+  <si>
+    <t>Run the Streamlit frontend in Chrome and Firefox.</t>
+  </si>
+  <si>
+    <t>Layout, buttons, and navigation must be consistent and functional across both browsers.</t>
+  </si>
+  <si>
+    <t>Functionality confirmed across standard browsers.</t>
   </si>
 </sst>
 </file>
@@ -122,15 +224,12 @@
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <color rgb="FF1B1C1D"/>
+      <name val="&quot;Google Sans Text&quot;"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <color rgb="FF1B1C1D"/>
+      <name val="&quot;Google Sans Text&quot;"/>
     </font>
   </fonts>
   <fills count="3">
@@ -142,8 +241,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9CB9C"/>
-        <bgColor rgb="FFF9CB9C"/>
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
   </fills>
@@ -153,15 +252,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -378,8 +483,15 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="27.0"/>
+    <col customWidth="1" min="3" max="3" width="31.38"/>
+    <col customWidth="1" min="4" max="4" width="37.5"/>
+    <col customWidth="1" min="5" max="5" width="33.88"/>
+    <col customWidth="1" min="6" max="6" width="27.63"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="36.0" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -400,103 +512,301 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
